--- a/deployment/Omaha_Cal_Info_GP03FLMA_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMA_00004.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="380" windowWidth="21520" windowHeight="12140"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>RB-16-05</t>
   </si>
   <si>
-    <t>GP03FLMA-RIM02-01-ADCPSL003</t>
-  </si>
-  <si>
     <t>P0079</t>
   </si>
   <si>
@@ -1020,6 +1017,9 @@
   </si>
   <si>
     <t>-4.926340e-07</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-01-ADCPSL003</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1027,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -1326,7 +1326,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="463">
+  <cellStyleXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1389,14 +1389,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1790,6 +1790,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1811,16 +1815,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1850,7 +1854,7 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1872,7 +1876,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1881,7 +1885,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1949,14 +1953,14 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="463">
+  <cellStyles count="467">
     <cellStyle name="Comma 2" xfId="62"/>
     <cellStyle name="Comma 2 2" xfId="63"/>
     <cellStyle name="Comma 2 2 2" xfId="64"/>
@@ -2133,6 +2137,8 @@
     <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
@@ -2299,6 +2305,8 @@
     <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="71"/>
     <cellStyle name="Hyperlink 2 3" xfId="72"/>
@@ -2740,7 +2748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
@@ -2857,11 +2865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C337" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A376" sqref="A376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3264,7 +3272,7 @@
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>16</v>
@@ -3297,7 +3305,7 @@
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>17</v>
@@ -3326,7 +3334,7 @@
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>18</v>
@@ -3355,7 +3363,7 @@
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>19</v>
@@ -3384,7 +3392,7 @@
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>20</v>
@@ -3413,7 +3421,7 @@
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>21</v>
@@ -3442,7 +3450,7 @@
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>39</v>
@@ -3559,7 +3567,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
@@ -3585,10 +3593,10 @@
         <v>130</v>
       </c>
       <c r="G25" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="48" t="s">
         <v>106</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>107</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -3616,7 +3624,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="17" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="45" t="s">
@@ -3649,7 +3657,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="35" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="40" t="s">
@@ -3678,7 +3686,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="35" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="40" t="s">
@@ -3709,7 +3717,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="35" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="40" t="s">
@@ -3738,7 +3746,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="35" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="40" t="s">
@@ -3767,7 +3775,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="35" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="40" t="s">
@@ -3796,7 +3804,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="35" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="40" t="s">
@@ -3852,7 +3860,7 @@
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="27" t="s">
         <v>27</v>
@@ -3885,7 +3893,7 @@
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="27" t="s">
         <v>6</v>
@@ -3914,7 +3922,7 @@
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="27" t="s">
         <v>7</v>
@@ -3943,7 +3951,7 @@
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="27" t="s">
         <v>5</v>
@@ -3972,10 +3980,10 @@
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="51">
         <v>3.0772320000000002E-7</v>
@@ -3995,10 +4003,10 @@
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="52">
         <v>-1.3110849999999999E-4</v>
@@ -4019,10 +4027,10 @@
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="52">
         <v>3.0893970000000001E-4</v>
@@ -4043,10 +4051,10 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" s="52">
         <v>-4.4615920000000004E-6</v>
@@ -4067,10 +4075,10 @@
       </c>
       <c r="E43" s="39"/>
       <c r="F43" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="52">
         <v>2.012555E-7</v>
@@ -4091,10 +4099,10 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" s="51">
         <v>-69.405199999999994</v>
@@ -4115,10 +4123,10 @@
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45" s="51">
         <v>5.1598779999999997E-2</v>
@@ -4139,10 +4147,10 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46" s="51">
         <v>-4.635052E-7</v>
@@ -4163,10 +4171,10 @@
       </c>
       <c r="E47" s="39"/>
       <c r="F47" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" s="51">
         <v>524520.6</v>
@@ -4187,10 +4195,10 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="51">
         <v>-2.121324</v>
@@ -4211,10 +4219,10 @@
       </c>
       <c r="E49" s="39"/>
       <c r="F49" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="51">
         <v>6.2338499999999998E-2</v>
@@ -4235,10 +4243,10 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H50" s="51">
         <v>25.338249999999999</v>
@@ -4259,10 +4267,10 @@
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H51" s="51">
         <v>-7.2499999999999995E-4</v>
@@ -4283,10 +4291,10 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H52" s="51">
         <v>0</v>
@@ -4307,10 +4315,10 @@
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53" s="52">
         <v>-5.4649860000000001E-2</v>
@@ -4331,10 +4339,10 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H54" s="52">
         <v>4.4922369999999996E-3</v>
@@ -4355,10 +4363,10 @@
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55" s="52">
         <v>-1.0092650000000001E-11</v>
@@ -4379,10 +4387,10 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H56" s="51">
         <v>-0.99503580000000003</v>
@@ -4403,10 +4411,10 @@
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H57" s="51">
         <v>0.1684099</v>
@@ -4427,10 +4435,10 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H58" s="51">
         <v>-5.4521759999999996E-4</v>
@@ -4451,10 +4459,10 @@
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H59" s="51">
         <v>7.1666319999999997E-5</v>
@@ -4475,10 +4483,10 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" s="51">
         <v>-9.5700000000000003E-8</v>
@@ -4499,10 +4507,10 @@
       </c>
       <c r="E61" s="39"/>
       <c r="F61" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H61" s="51">
         <v>3.2499999999999998E-6</v>
@@ -4539,7 +4547,7 @@
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="27" t="s">
         <v>27</v>
@@ -4572,7 +4580,7 @@
       </c>
       <c r="E64" s="36"/>
       <c r="F64" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G64" s="27" t="s">
         <v>6</v>
@@ -4601,7 +4609,7 @@
       </c>
       <c r="E65" s="36"/>
       <c r="F65" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" s="27" t="s">
         <v>7</v>
@@ -4630,7 +4638,7 @@
       </c>
       <c r="E66" s="36"/>
       <c r="F66" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="27" t="s">
         <v>5</v>
@@ -4659,10 +4667,10 @@
       </c>
       <c r="E67" s="39"/>
       <c r="F67" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G67" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H67" s="51">
         <v>6.1496669999999995E-7</v>
@@ -4682,13 +4690,13 @@
       </c>
       <c r="E68" s="39"/>
       <c r="F68" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H68" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I68" s="43"/>
       <c r="K68" s="44"/>
@@ -4706,13 +4714,13 @@
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H69" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I69" s="43"/>
       <c r="K69" s="44"/>
@@ -4730,13 +4738,13 @@
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H70" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I70" s="43"/>
       <c r="K70" s="44"/>
@@ -4754,13 +4762,13 @@
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I71" s="43"/>
       <c r="K71" s="44"/>
@@ -4778,13 +4786,13 @@
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H72" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I72" s="43"/>
       <c r="K72" s="44"/>
@@ -4802,13 +4810,13 @@
       </c>
       <c r="E73" s="39"/>
       <c r="F73" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I73" s="43"/>
       <c r="K73" s="44"/>
@@ -4826,13 +4834,13 @@
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I74" s="43"/>
       <c r="K74" s="44"/>
@@ -4850,13 +4858,13 @@
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I75" s="43"/>
       <c r="K75" s="44"/>
@@ -4874,13 +4882,13 @@
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H76" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I76" s="43"/>
       <c r="K76" s="44"/>
@@ -4898,13 +4906,13 @@
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I77" s="43"/>
       <c r="K77" s="44"/>
@@ -4922,13 +4930,13 @@
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I78" s="43"/>
       <c r="K78" s="44"/>
@@ -4946,13 +4954,13 @@
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H79" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I79" s="43"/>
       <c r="K79" s="44"/>
@@ -4970,13 +4978,13 @@
       </c>
       <c r="E80" s="39"/>
       <c r="F80" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H80" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I80" s="43"/>
       <c r="K80" s="44"/>
@@ -4994,13 +5002,13 @@
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I81" s="43"/>
       <c r="K81" s="44"/>
@@ -5018,13 +5026,13 @@
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H82" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I82" s="43"/>
       <c r="K82" s="44"/>
@@ -5042,13 +5050,13 @@
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H83" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I83" s="43"/>
       <c r="K83" s="44"/>
@@ -5066,13 +5074,13 @@
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H84" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I84" s="43"/>
       <c r="K84" s="44"/>
@@ -5090,13 +5098,13 @@
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H85" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I85" s="43"/>
       <c r="K85" s="44"/>
@@ -5114,13 +5122,13 @@
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H86" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I86" s="43"/>
       <c r="K86" s="44"/>
@@ -5138,13 +5146,13 @@
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H87" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I87" s="43"/>
       <c r="K87" s="44"/>
@@ -5162,13 +5170,13 @@
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H88" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I88" s="43"/>
       <c r="K88" s="44"/>
@@ -5186,13 +5194,13 @@
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H89" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I89" s="43"/>
       <c r="K89" s="44"/>
@@ -5226,7 +5234,7 @@
       </c>
       <c r="E91" s="26"/>
       <c r="F91" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>27</v>
@@ -5259,7 +5267,7 @@
       </c>
       <c r="E92" s="36"/>
       <c r="F92" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>6</v>
@@ -5288,7 +5296,7 @@
       </c>
       <c r="E93" s="36"/>
       <c r="F93" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>7</v>
@@ -5317,7 +5325,7 @@
       </c>
       <c r="E94" s="36"/>
       <c r="F94" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>5</v>
@@ -5346,13 +5354,13 @@
       </c>
       <c r="E95" s="39"/>
       <c r="F95" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H95" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I95" s="6"/>
     </row>
@@ -5369,13 +5377,13 @@
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H96" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I96" s="43"/>
       <c r="K96" s="44"/>
@@ -5393,13 +5401,13 @@
       </c>
       <c r="E97" s="39"/>
       <c r="F97" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H97" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I97" s="43"/>
       <c r="K97" s="44"/>
@@ -5417,13 +5425,13 @@
       </c>
       <c r="E98" s="39"/>
       <c r="F98" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H98" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I98" s="43"/>
       <c r="K98" s="44"/>
@@ -5441,13 +5449,13 @@
       </c>
       <c r="E99" s="39"/>
       <c r="F99" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H99" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I99" s="43"/>
       <c r="K99" s="44"/>
@@ -5465,13 +5473,13 @@
       </c>
       <c r="E100" s="39"/>
       <c r="F100" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H100" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I100" s="43"/>
       <c r="K100" s="44"/>
@@ -5489,13 +5497,13 @@
       </c>
       <c r="E101" s="39"/>
       <c r="F101" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H101" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I101" s="43"/>
       <c r="K101" s="44"/>
@@ -5513,13 +5521,13 @@
       </c>
       <c r="E102" s="39"/>
       <c r="F102" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H102" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I102" s="43"/>
       <c r="K102" s="44"/>
@@ -5537,13 +5545,13 @@
       </c>
       <c r="E103" s="39"/>
       <c r="F103" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H103" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I103" s="43"/>
       <c r="K103" s="44"/>
@@ -5561,13 +5569,13 @@
       </c>
       <c r="E104" s="39"/>
       <c r="F104" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I104" s="43"/>
       <c r="K104" s="44"/>
@@ -5585,13 +5593,13 @@
       </c>
       <c r="E105" s="39"/>
       <c r="F105" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H105" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I105" s="43"/>
       <c r="K105" s="44"/>
@@ -5609,13 +5617,13 @@
       </c>
       <c r="E106" s="39"/>
       <c r="F106" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H106" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I106" s="43"/>
       <c r="K106" s="44"/>
@@ -5633,13 +5641,13 @@
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H107" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I107" s="43"/>
       <c r="K107" s="44"/>
@@ -5657,13 +5665,13 @@
       </c>
       <c r="E108" s="39"/>
       <c r="F108" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H108" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I108" s="43"/>
       <c r="K108" s="44"/>
@@ -5681,13 +5689,13 @@
       </c>
       <c r="E109" s="39"/>
       <c r="F109" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H109" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I109" s="43"/>
       <c r="K109" s="44"/>
@@ -5705,13 +5713,13 @@
       </c>
       <c r="E110" s="39"/>
       <c r="F110" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H110" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I110" s="43"/>
       <c r="K110" s="44"/>
@@ -5729,13 +5737,13 @@
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H111" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I111" s="43"/>
       <c r="K111" s="44"/>
@@ -5753,13 +5761,13 @@
       </c>
       <c r="E112" s="39"/>
       <c r="F112" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H112" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I112" s="43"/>
       <c r="K112" s="44"/>
@@ -5777,13 +5785,13 @@
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H113" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I113" s="43"/>
       <c r="K113" s="44"/>
@@ -5801,13 +5809,13 @@
       </c>
       <c r="E114" s="39"/>
       <c r="F114" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H114" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I114" s="43"/>
       <c r="K114" s="44"/>
@@ -5825,13 +5833,13 @@
       </c>
       <c r="E115" s="39"/>
       <c r="F115" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H115" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I115" s="43"/>
       <c r="K115" s="44"/>
@@ -5849,13 +5857,13 @@
       </c>
       <c r="E116" s="39"/>
       <c r="F116" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H116" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I116" s="43"/>
       <c r="K116" s="44"/>
@@ -5873,13 +5881,13 @@
       </c>
       <c r="E117" s="39"/>
       <c r="F117" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H117" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I117" s="43"/>
       <c r="K117" s="44"/>
@@ -5913,7 +5921,7 @@
       </c>
       <c r="E119" s="26"/>
       <c r="F119" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>27</v>
@@ -5946,7 +5954,7 @@
       </c>
       <c r="E120" s="36"/>
       <c r="F120" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G120" s="27" t="s">
         <v>6</v>
@@ -5975,7 +5983,7 @@
       </c>
       <c r="E121" s="36"/>
       <c r="F121" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>7</v>
@@ -6004,7 +6012,7 @@
       </c>
       <c r="E122" s="36"/>
       <c r="F122" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>5</v>
@@ -6033,13 +6041,13 @@
       </c>
       <c r="E123" s="39"/>
       <c r="F123" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G123" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H123" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I123" s="6"/>
     </row>
@@ -6056,13 +6064,13 @@
       </c>
       <c r="E124" s="39"/>
       <c r="F124" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H124" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I124" s="43"/>
       <c r="K124" s="44"/>
@@ -6080,13 +6088,13 @@
       </c>
       <c r="E125" s="39"/>
       <c r="F125" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H125" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I125" s="43"/>
       <c r="K125" s="44"/>
@@ -6104,13 +6112,13 @@
       </c>
       <c r="E126" s="39"/>
       <c r="F126" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H126" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I126" s="43"/>
       <c r="K126" s="44"/>
@@ -6128,13 +6136,13 @@
       </c>
       <c r="E127" s="39"/>
       <c r="F127" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H127" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I127" s="43"/>
       <c r="K127" s="44"/>
@@ -6152,13 +6160,13 @@
       </c>
       <c r="E128" s="39"/>
       <c r="F128" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H128" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I128" s="43"/>
       <c r="K128" s="44"/>
@@ -6176,13 +6184,13 @@
       </c>
       <c r="E129" s="39"/>
       <c r="F129" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H129" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I129" s="43"/>
       <c r="K129" s="44"/>
@@ -6200,13 +6208,13 @@
       </c>
       <c r="E130" s="39"/>
       <c r="F130" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H130" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I130" s="43"/>
       <c r="K130" s="44"/>
@@ -6224,13 +6232,13 @@
       </c>
       <c r="E131" s="39"/>
       <c r="F131" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H131" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I131" s="43"/>
       <c r="K131" s="44"/>
@@ -6248,13 +6256,13 @@
       </c>
       <c r="E132" s="39"/>
       <c r="F132" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H132" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I132" s="43"/>
       <c r="K132" s="44"/>
@@ -6272,13 +6280,13 @@
       </c>
       <c r="E133" s="39"/>
       <c r="F133" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H133" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I133" s="43"/>
       <c r="K133" s="44"/>
@@ -6296,13 +6304,13 @@
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H134" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I134" s="43"/>
       <c r="K134" s="44"/>
@@ -6320,13 +6328,13 @@
       </c>
       <c r="E135" s="39"/>
       <c r="F135" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H135" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I135" s="43"/>
       <c r="K135" s="44"/>
@@ -6344,13 +6352,13 @@
       </c>
       <c r="E136" s="39"/>
       <c r="F136" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H136" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I136" s="43"/>
       <c r="K136" s="44"/>
@@ -6368,13 +6376,13 @@
       </c>
       <c r="E137" s="39"/>
       <c r="F137" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H137" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I137" s="43"/>
       <c r="K137" s="44"/>
@@ -6392,13 +6400,13 @@
       </c>
       <c r="E138" s="39"/>
       <c r="F138" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H138" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I138" s="43"/>
       <c r="K138" s="44"/>
@@ -6416,13 +6424,13 @@
       </c>
       <c r="E139" s="39"/>
       <c r="F139" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H139" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I139" s="43"/>
       <c r="K139" s="44"/>
@@ -6440,13 +6448,13 @@
       </c>
       <c r="E140" s="39"/>
       <c r="F140" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H140" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I140" s="43"/>
       <c r="K140" s="44"/>
@@ -6464,13 +6472,13 @@
       </c>
       <c r="E141" s="39"/>
       <c r="F141" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H141" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I141" s="43"/>
       <c r="K141" s="44"/>
@@ -6488,13 +6496,13 @@
       </c>
       <c r="E142" s="39"/>
       <c r="F142" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H142" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I142" s="43"/>
       <c r="K142" s="44"/>
@@ -6512,13 +6520,13 @@
       </c>
       <c r="E143" s="39"/>
       <c r="F143" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H143" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I143" s="43"/>
       <c r="K143" s="44"/>
@@ -6536,13 +6544,13 @@
       </c>
       <c r="E144" s="39"/>
       <c r="F144" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H144" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I144" s="43"/>
       <c r="K144" s="44"/>
@@ -6560,13 +6568,13 @@
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H145" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I145" s="43"/>
       <c r="K145" s="44"/>
@@ -6600,7 +6608,7 @@
       </c>
       <c r="E147" s="26"/>
       <c r="F147" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G147" s="27" t="s">
         <v>27</v>
@@ -6633,7 +6641,7 @@
       </c>
       <c r="E148" s="36"/>
       <c r="F148" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G148" s="27" t="s">
         <v>6</v>
@@ -6662,7 +6670,7 @@
       </c>
       <c r="E149" s="36"/>
       <c r="F149" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G149" s="27" t="s">
         <v>7</v>
@@ -6691,7 +6699,7 @@
       </c>
       <c r="E150" s="36"/>
       <c r="F150" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G150" s="27" t="s">
         <v>5</v>
@@ -6720,13 +6728,13 @@
       </c>
       <c r="E151" s="39"/>
       <c r="F151" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H151" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I151" s="6"/>
     </row>
@@ -6743,13 +6751,13 @@
       </c>
       <c r="E152" s="39"/>
       <c r="F152" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H152" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I152" s="43"/>
       <c r="K152" s="44"/>
@@ -6767,13 +6775,13 @@
       </c>
       <c r="E153" s="39"/>
       <c r="F153" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H153" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I153" s="43"/>
       <c r="K153" s="44"/>
@@ -6791,13 +6799,13 @@
       </c>
       <c r="E154" s="39"/>
       <c r="F154" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H154" s="52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I154" s="43"/>
       <c r="K154" s="44"/>
@@ -6815,13 +6823,13 @@
       </c>
       <c r="E155" s="39"/>
       <c r="F155" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H155" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I155" s="43"/>
       <c r="K155" s="44"/>
@@ -6839,13 +6847,13 @@
       </c>
       <c r="E156" s="39"/>
       <c r="F156" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H156" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I156" s="43"/>
       <c r="K156" s="44"/>
@@ -6863,13 +6871,13 @@
       </c>
       <c r="E157" s="39"/>
       <c r="F157" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H157" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I157" s="43"/>
       <c r="K157" s="44"/>
@@ -6887,13 +6895,13 @@
       </c>
       <c r="E158" s="39"/>
       <c r="F158" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H158" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I158" s="43"/>
       <c r="K158" s="44"/>
@@ -6911,13 +6919,13 @@
       </c>
       <c r="E159" s="39"/>
       <c r="F159" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H159" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I159" s="43"/>
       <c r="K159" s="44"/>
@@ -6935,13 +6943,13 @@
       </c>
       <c r="E160" s="39"/>
       <c r="F160" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H160" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I160" s="43"/>
       <c r="K160" s="44"/>
@@ -6959,13 +6967,13 @@
       </c>
       <c r="E161" s="39"/>
       <c r="F161" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H161" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I161" s="43"/>
       <c r="K161" s="44"/>
@@ -6983,13 +6991,13 @@
       </c>
       <c r="E162" s="39"/>
       <c r="F162" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H162" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I162" s="43"/>
       <c r="K162" s="44"/>
@@ -7007,13 +7015,13 @@
       </c>
       <c r="E163" s="39"/>
       <c r="F163" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H163" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I163" s="43"/>
       <c r="K163" s="44"/>
@@ -7031,13 +7039,13 @@
       </c>
       <c r="E164" s="39"/>
       <c r="F164" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H164" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I164" s="43"/>
       <c r="K164" s="44"/>
@@ -7055,13 +7063,13 @@
       </c>
       <c r="E165" s="39"/>
       <c r="F165" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H165" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I165" s="43"/>
       <c r="K165" s="44"/>
@@ -7079,13 +7087,13 @@
       </c>
       <c r="E166" s="39"/>
       <c r="F166" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H166" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I166" s="43"/>
       <c r="K166" s="44"/>
@@ -7103,13 +7111,13 @@
       </c>
       <c r="E167" s="39"/>
       <c r="F167" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H167" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I167" s="43"/>
       <c r="K167" s="44"/>
@@ -7127,13 +7135,13 @@
       </c>
       <c r="E168" s="39"/>
       <c r="F168" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H168" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I168" s="43"/>
       <c r="K168" s="44"/>
@@ -7151,13 +7159,13 @@
       </c>
       <c r="E169" s="39"/>
       <c r="F169" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H169" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I169" s="43"/>
       <c r="K169" s="44"/>
@@ -7175,13 +7183,13 @@
       </c>
       <c r="E170" s="39"/>
       <c r="F170" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H170" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I170" s="43"/>
       <c r="K170" s="44"/>
@@ -7199,13 +7207,13 @@
       </c>
       <c r="E171" s="39"/>
       <c r="F171" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H171" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I171" s="43"/>
       <c r="K171" s="44"/>
@@ -7223,13 +7231,13 @@
       </c>
       <c r="E172" s="39"/>
       <c r="F172" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H172" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I172" s="43"/>
       <c r="K172" s="44"/>
@@ -7247,13 +7255,13 @@
       </c>
       <c r="E173" s="39"/>
       <c r="F173" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H173" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I173" s="43"/>
       <c r="K173" s="44"/>
@@ -7287,7 +7295,7 @@
       </c>
       <c r="E175" s="26"/>
       <c r="F175" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G175" s="27" t="s">
         <v>27</v>
@@ -7320,7 +7328,7 @@
       </c>
       <c r="E176" s="36"/>
       <c r="F176" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G176" s="27" t="s">
         <v>6</v>
@@ -7349,7 +7357,7 @@
       </c>
       <c r="E177" s="36"/>
       <c r="F177" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G177" s="27" t="s">
         <v>7</v>
@@ -7378,7 +7386,7 @@
       </c>
       <c r="E178" s="36"/>
       <c r="F178" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G178" s="27" t="s">
         <v>5</v>
@@ -7407,13 +7415,13 @@
       </c>
       <c r="E179" s="39"/>
       <c r="F179" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G179" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H179" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I179" s="6"/>
     </row>
@@ -7430,13 +7438,13 @@
       </c>
       <c r="E180" s="39"/>
       <c r="F180" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H180" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I180" s="43"/>
       <c r="K180" s="44"/>
@@ -7454,13 +7462,13 @@
       </c>
       <c r="E181" s="39"/>
       <c r="F181" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H181" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I181" s="43"/>
       <c r="K181" s="44"/>
@@ -7478,13 +7486,13 @@
       </c>
       <c r="E182" s="39"/>
       <c r="F182" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H182" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I182" s="43"/>
       <c r="K182" s="44"/>
@@ -7502,13 +7510,13 @@
       </c>
       <c r="E183" s="39"/>
       <c r="F183" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H183" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I183" s="43"/>
       <c r="K183" s="44"/>
@@ -7526,13 +7534,13 @@
       </c>
       <c r="E184" s="39"/>
       <c r="F184" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H184" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I184" s="43"/>
       <c r="K184" s="44"/>
@@ -7550,13 +7558,13 @@
       </c>
       <c r="E185" s="39"/>
       <c r="F185" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H185" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I185" s="43"/>
       <c r="K185" s="44"/>
@@ -7574,13 +7582,13 @@
       </c>
       <c r="E186" s="39"/>
       <c r="F186" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H186" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I186" s="43"/>
       <c r="K186" s="44"/>
@@ -7598,13 +7606,13 @@
       </c>
       <c r="E187" s="39"/>
       <c r="F187" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H187" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I187" s="43"/>
       <c r="K187" s="44"/>
@@ -7622,13 +7630,13 @@
       </c>
       <c r="E188" s="39"/>
       <c r="F188" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H188" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I188" s="43"/>
       <c r="K188" s="44"/>
@@ -7646,13 +7654,13 @@
       </c>
       <c r="E189" s="39"/>
       <c r="F189" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H189" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I189" s="43"/>
       <c r="K189" s="44"/>
@@ -7670,13 +7678,13 @@
       </c>
       <c r="E190" s="39"/>
       <c r="F190" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H190" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I190" s="43"/>
       <c r="K190" s="44"/>
@@ -7694,13 +7702,13 @@
       </c>
       <c r="E191" s="39"/>
       <c r="F191" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H191" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I191" s="43"/>
       <c r="K191" s="44"/>
@@ -7718,13 +7726,13 @@
       </c>
       <c r="E192" s="39"/>
       <c r="F192" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H192" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I192" s="43"/>
       <c r="K192" s="44"/>
@@ -7742,13 +7750,13 @@
       </c>
       <c r="E193" s="39"/>
       <c r="F193" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H193" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I193" s="43"/>
       <c r="K193" s="44"/>
@@ -7766,13 +7774,13 @@
       </c>
       <c r="E194" s="39"/>
       <c r="F194" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H194" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I194" s="43"/>
       <c r="K194" s="44"/>
@@ -7790,13 +7798,13 @@
       </c>
       <c r="E195" s="39"/>
       <c r="F195" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H195" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I195" s="43"/>
       <c r="K195" s="44"/>
@@ -7814,13 +7822,13 @@
       </c>
       <c r="E196" s="39"/>
       <c r="F196" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H196" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I196" s="43"/>
       <c r="K196" s="44"/>
@@ -7838,13 +7846,13 @@
       </c>
       <c r="E197" s="39"/>
       <c r="F197" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H197" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I197" s="43"/>
       <c r="K197" s="44"/>
@@ -7862,13 +7870,13 @@
       </c>
       <c r="E198" s="39"/>
       <c r="F198" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H198" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I198" s="43"/>
       <c r="K198" s="44"/>
@@ -7886,13 +7894,13 @@
       </c>
       <c r="E199" s="39"/>
       <c r="F199" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H199" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I199" s="43"/>
       <c r="K199" s="44"/>
@@ -7910,13 +7918,13 @@
       </c>
       <c r="E200" s="39"/>
       <c r="F200" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H200" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I200" s="43"/>
       <c r="K200" s="44"/>
@@ -7934,13 +7942,13 @@
       </c>
       <c r="E201" s="39"/>
       <c r="F201" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H201" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I201" s="43"/>
       <c r="K201" s="44"/>
@@ -7974,7 +7982,7 @@
       </c>
       <c r="E203" s="26"/>
       <c r="F203" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G203" s="27" t="s">
         <v>27</v>
@@ -8007,7 +8015,7 @@
       </c>
       <c r="E204" s="36"/>
       <c r="F204" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G204" s="27" t="s">
         <v>6</v>
@@ -8036,7 +8044,7 @@
       </c>
       <c r="E205" s="36"/>
       <c r="F205" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G205" s="27" t="s">
         <v>7</v>
@@ -8065,7 +8073,7 @@
       </c>
       <c r="E206" s="36"/>
       <c r="F206" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G206" s="27" t="s">
         <v>5</v>
@@ -8094,13 +8102,13 @@
       </c>
       <c r="E207" s="39"/>
       <c r="F207" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G207" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H207" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I207" s="6"/>
     </row>
@@ -8117,13 +8125,13 @@
       </c>
       <c r="E208" s="39"/>
       <c r="F208" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H208" s="52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I208" s="43"/>
       <c r="K208" s="44"/>
@@ -8141,13 +8149,13 @@
       </c>
       <c r="E209" s="39"/>
       <c r="F209" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H209" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I209" s="43"/>
       <c r="K209" s="44"/>
@@ -8165,13 +8173,13 @@
       </c>
       <c r="E210" s="39"/>
       <c r="F210" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H210" s="52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I210" s="43"/>
       <c r="K210" s="44"/>
@@ -8189,13 +8197,13 @@
       </c>
       <c r="E211" s="39"/>
       <c r="F211" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H211" s="52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I211" s="43"/>
       <c r="K211" s="44"/>
@@ -8213,13 +8221,13 @@
       </c>
       <c r="E212" s="39"/>
       <c r="F212" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H212" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I212" s="43"/>
       <c r="K212" s="44"/>
@@ -8237,13 +8245,13 @@
       </c>
       <c r="E213" s="39"/>
       <c r="F213" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H213" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I213" s="43"/>
       <c r="K213" s="44"/>
@@ -8261,13 +8269,13 @@
       </c>
       <c r="E214" s="39"/>
       <c r="F214" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H214" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I214" s="43"/>
       <c r="K214" s="44"/>
@@ -8285,13 +8293,13 @@
       </c>
       <c r="E215" s="39"/>
       <c r="F215" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H215" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I215" s="43"/>
       <c r="K215" s="44"/>
@@ -8309,13 +8317,13 @@
       </c>
       <c r="E216" s="39"/>
       <c r="F216" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H216" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I216" s="43"/>
       <c r="K216" s="44"/>
@@ -8333,13 +8341,13 @@
       </c>
       <c r="E217" s="39"/>
       <c r="F217" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H217" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I217" s="43"/>
       <c r="K217" s="44"/>
@@ -8357,13 +8365,13 @@
       </c>
       <c r="E218" s="39"/>
       <c r="F218" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H218" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I218" s="43"/>
       <c r="K218" s="44"/>
@@ -8381,13 +8389,13 @@
       </c>
       <c r="E219" s="39"/>
       <c r="F219" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H219" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I219" s="43"/>
       <c r="K219" s="44"/>
@@ -8405,13 +8413,13 @@
       </c>
       <c r="E220" s="39"/>
       <c r="F220" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H220" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I220" s="43"/>
       <c r="K220" s="44"/>
@@ -8429,13 +8437,13 @@
       </c>
       <c r="E221" s="39"/>
       <c r="F221" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H221" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I221" s="43"/>
       <c r="K221" s="44"/>
@@ -8453,13 +8461,13 @@
       </c>
       <c r="E222" s="39"/>
       <c r="F222" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H222" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I222" s="43"/>
       <c r="K222" s="44"/>
@@ -8477,13 +8485,13 @@
       </c>
       <c r="E223" s="39"/>
       <c r="F223" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H223" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I223" s="43"/>
       <c r="K223" s="44"/>
@@ -8501,13 +8509,13 @@
       </c>
       <c r="E224" s="39"/>
       <c r="F224" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H224" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I224" s="43"/>
       <c r="K224" s="44"/>
@@ -8525,13 +8533,13 @@
       </c>
       <c r="E225" s="39"/>
       <c r="F225" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H225" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I225" s="43"/>
       <c r="K225" s="44"/>
@@ -8549,13 +8557,13 @@
       </c>
       <c r="E226" s="39"/>
       <c r="F226" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H226" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I226" s="43"/>
       <c r="K226" s="44"/>
@@ -8573,13 +8581,13 @@
       </c>
       <c r="E227" s="39"/>
       <c r="F227" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H227" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I227" s="43"/>
       <c r="K227" s="44"/>
@@ -8597,13 +8605,13 @@
       </c>
       <c r="E228" s="39"/>
       <c r="F228" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H228" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I228" s="43"/>
       <c r="K228" s="44"/>
@@ -8621,13 +8629,13 @@
       </c>
       <c r="E229" s="39"/>
       <c r="F229" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H229" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I229" s="43"/>
       <c r="K229" s="44"/>
@@ -8661,7 +8669,7 @@
       </c>
       <c r="E231" s="26"/>
       <c r="F231" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G231" s="27" t="s">
         <v>27</v>
@@ -8694,7 +8702,7 @@
       </c>
       <c r="E232" s="36"/>
       <c r="F232" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G232" s="27" t="s">
         <v>6</v>
@@ -8723,7 +8731,7 @@
       </c>
       <c r="E233" s="36"/>
       <c r="F233" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G233" s="27" t="s">
         <v>7</v>
@@ -8752,7 +8760,7 @@
       </c>
       <c r="E234" s="36"/>
       <c r="F234" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G234" s="27" t="s">
         <v>5</v>
@@ -8781,13 +8789,13 @@
       </c>
       <c r="E235" s="39"/>
       <c r="F235" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G235" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H235" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I235" s="6"/>
     </row>
@@ -8804,13 +8812,13 @@
       </c>
       <c r="E236" s="39"/>
       <c r="F236" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H236" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I236" s="43"/>
       <c r="K236" s="44"/>
@@ -8828,13 +8836,13 @@
       </c>
       <c r="E237" s="39"/>
       <c r="F237" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H237" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I237" s="43"/>
       <c r="K237" s="44"/>
@@ -8852,13 +8860,13 @@
       </c>
       <c r="E238" s="39"/>
       <c r="F238" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H238" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I238" s="43"/>
       <c r="K238" s="44"/>
@@ -8876,13 +8884,13 @@
       </c>
       <c r="E239" s="39"/>
       <c r="F239" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H239" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I239" s="43"/>
       <c r="K239" s="44"/>
@@ -8900,13 +8908,13 @@
       </c>
       <c r="E240" s="39"/>
       <c r="F240" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H240" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I240" s="43"/>
       <c r="K240" s="44"/>
@@ -8924,13 +8932,13 @@
       </c>
       <c r="E241" s="39"/>
       <c r="F241" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H241" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I241" s="43"/>
       <c r="K241" s="44"/>
@@ -8948,13 +8956,13 @@
       </c>
       <c r="E242" s="39"/>
       <c r="F242" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H242" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I242" s="43"/>
       <c r="K242" s="44"/>
@@ -8972,13 +8980,13 @@
       </c>
       <c r="E243" s="39"/>
       <c r="F243" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H243" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I243" s="43"/>
       <c r="K243" s="44"/>
@@ -8996,13 +9004,13 @@
       </c>
       <c r="E244" s="39"/>
       <c r="F244" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H244" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I244" s="43"/>
       <c r="K244" s="44"/>
@@ -9020,13 +9028,13 @@
       </c>
       <c r="E245" s="39"/>
       <c r="F245" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H245" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I245" s="43"/>
       <c r="K245" s="44"/>
@@ -9044,13 +9052,13 @@
       </c>
       <c r="E246" s="39"/>
       <c r="F246" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H246" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I246" s="43"/>
       <c r="K246" s="44"/>
@@ -9068,13 +9076,13 @@
       </c>
       <c r="E247" s="39"/>
       <c r="F247" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H247" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I247" s="43"/>
       <c r="K247" s="44"/>
@@ -9092,13 +9100,13 @@
       </c>
       <c r="E248" s="39"/>
       <c r="F248" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H248" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I248" s="43"/>
       <c r="K248" s="44"/>
@@ -9116,13 +9124,13 @@
       </c>
       <c r="E249" s="39"/>
       <c r="F249" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H249" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I249" s="43"/>
       <c r="K249" s="44"/>
@@ -9140,13 +9148,13 @@
       </c>
       <c r="E250" s="39"/>
       <c r="F250" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H250" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I250" s="43"/>
       <c r="K250" s="44"/>
@@ -9164,13 +9172,13 @@
       </c>
       <c r="E251" s="39"/>
       <c r="F251" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H251" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I251" s="43"/>
       <c r="K251" s="44"/>
@@ -9188,13 +9196,13 @@
       </c>
       <c r="E252" s="39"/>
       <c r="F252" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H252" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I252" s="43"/>
       <c r="K252" s="44"/>
@@ -9212,13 +9220,13 @@
       </c>
       <c r="E253" s="39"/>
       <c r="F253" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H253" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I253" s="43"/>
       <c r="K253" s="44"/>
@@ -9236,13 +9244,13 @@
       </c>
       <c r="E254" s="39"/>
       <c r="F254" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G254" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H254" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I254" s="43"/>
       <c r="K254" s="44"/>
@@ -9260,13 +9268,13 @@
       </c>
       <c r="E255" s="39"/>
       <c r="F255" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G255" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H255" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I255" s="43"/>
       <c r="K255" s="44"/>
@@ -9284,13 +9292,13 @@
       </c>
       <c r="E256" s="39"/>
       <c r="F256" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H256" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I256" s="43"/>
       <c r="K256" s="44"/>
@@ -9308,13 +9316,13 @@
       </c>
       <c r="E257" s="39"/>
       <c r="F257" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H257" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I257" s="43"/>
       <c r="K257" s="44"/>
@@ -9348,7 +9356,7 @@
       </c>
       <c r="E259" s="26"/>
       <c r="F259" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G259" s="27" t="s">
         <v>27</v>
@@ -9381,7 +9389,7 @@
       </c>
       <c r="E260" s="36"/>
       <c r="F260" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G260" s="27" t="s">
         <v>6</v>
@@ -9410,7 +9418,7 @@
       </c>
       <c r="E261" s="36"/>
       <c r="F261" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G261" s="27" t="s">
         <v>7</v>
@@ -9439,7 +9447,7 @@
       </c>
       <c r="E262" s="36"/>
       <c r="F262" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G262" s="27" t="s">
         <v>5</v>
@@ -9468,13 +9476,13 @@
       </c>
       <c r="E263" s="39"/>
       <c r="F263" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G263" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H263" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I263" s="6"/>
     </row>
@@ -9491,13 +9499,13 @@
       </c>
       <c r="E264" s="39"/>
       <c r="F264" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H264" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I264" s="43"/>
       <c r="K264" s="44"/>
@@ -9515,13 +9523,13 @@
       </c>
       <c r="E265" s="39"/>
       <c r="F265" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H265" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I265" s="43"/>
       <c r="K265" s="44"/>
@@ -9539,13 +9547,13 @@
       </c>
       <c r="E266" s="39"/>
       <c r="F266" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H266" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I266" s="43"/>
       <c r="K266" s="44"/>
@@ -9563,13 +9571,13 @@
       </c>
       <c r="E267" s="39"/>
       <c r="F267" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H267" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I267" s="43"/>
       <c r="K267" s="44"/>
@@ -9587,13 +9595,13 @@
       </c>
       <c r="E268" s="39"/>
       <c r="F268" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H268" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I268" s="43"/>
       <c r="K268" s="44"/>
@@ -9611,13 +9619,13 @@
       </c>
       <c r="E269" s="39"/>
       <c r="F269" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H269" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I269" s="43"/>
       <c r="K269" s="44"/>
@@ -9635,13 +9643,13 @@
       </c>
       <c r="E270" s="39"/>
       <c r="F270" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G270" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H270" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I270" s="43"/>
       <c r="K270" s="44"/>
@@ -9659,13 +9667,13 @@
       </c>
       <c r="E271" s="39"/>
       <c r="F271" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H271" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I271" s="43"/>
       <c r="K271" s="44"/>
@@ -9683,13 +9691,13 @@
       </c>
       <c r="E272" s="39"/>
       <c r="F272" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H272" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I272" s="43"/>
       <c r="K272" s="44"/>
@@ -9707,13 +9715,13 @@
       </c>
       <c r="E273" s="39"/>
       <c r="F273" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H273" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I273" s="43"/>
       <c r="K273" s="44"/>
@@ -9731,13 +9739,13 @@
       </c>
       <c r="E274" s="39"/>
       <c r="F274" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H274" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I274" s="43"/>
       <c r="K274" s="44"/>
@@ -9755,13 +9763,13 @@
       </c>
       <c r="E275" s="39"/>
       <c r="F275" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H275" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I275" s="43"/>
       <c r="K275" s="44"/>
@@ -9779,13 +9787,13 @@
       </c>
       <c r="E276" s="39"/>
       <c r="F276" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G276" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H276" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I276" s="43"/>
       <c r="K276" s="44"/>
@@ -9803,13 +9811,13 @@
       </c>
       <c r="E277" s="39"/>
       <c r="F277" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H277" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I277" s="43"/>
       <c r="K277" s="44"/>
@@ -9827,13 +9835,13 @@
       </c>
       <c r="E278" s="39"/>
       <c r="F278" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H278" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I278" s="43"/>
       <c r="K278" s="44"/>
@@ -9851,13 +9859,13 @@
       </c>
       <c r="E279" s="39"/>
       <c r="F279" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H279" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I279" s="43"/>
       <c r="K279" s="44"/>
@@ -9875,13 +9883,13 @@
       </c>
       <c r="E280" s="39"/>
       <c r="F280" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H280" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I280" s="43"/>
       <c r="K280" s="44"/>
@@ -9899,13 +9907,13 @@
       </c>
       <c r="E281" s="39"/>
       <c r="F281" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G281" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H281" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I281" s="43"/>
       <c r="K281" s="44"/>
@@ -9923,13 +9931,13 @@
       </c>
       <c r="E282" s="39"/>
       <c r="F282" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H282" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I282" s="43"/>
       <c r="K282" s="44"/>
@@ -9947,13 +9955,13 @@
       </c>
       <c r="E283" s="39"/>
       <c r="F283" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G283" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H283" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I283" s="43"/>
       <c r="K283" s="44"/>
@@ -9971,13 +9979,13 @@
       </c>
       <c r="E284" s="39"/>
       <c r="F284" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G284" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H284" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I284" s="43"/>
       <c r="K284" s="44"/>
@@ -9995,13 +10003,13 @@
       </c>
       <c r="E285" s="39"/>
       <c r="F285" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G285" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H285" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I285" s="43"/>
       <c r="K285" s="44"/>
@@ -10035,7 +10043,7 @@
       </c>
       <c r="E287" s="26"/>
       <c r="F287" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G287" s="27" t="s">
         <v>27</v>
@@ -10068,7 +10076,7 @@
       </c>
       <c r="E288" s="36"/>
       <c r="F288" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G288" s="27" t="s">
         <v>6</v>
@@ -10097,7 +10105,7 @@
       </c>
       <c r="E289" s="36"/>
       <c r="F289" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G289" s="27" t="s">
         <v>7</v>
@@ -10126,7 +10134,7 @@
       </c>
       <c r="E290" s="36"/>
       <c r="F290" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G290" s="27" t="s">
         <v>5</v>
@@ -10155,13 +10163,13 @@
       </c>
       <c r="E291" s="39"/>
       <c r="F291" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G291" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H291" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I291" s="6"/>
     </row>
@@ -10178,13 +10186,13 @@
       </c>
       <c r="E292" s="39"/>
       <c r="F292" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G292" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H292" s="52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I292" s="43"/>
       <c r="K292" s="44"/>
@@ -10202,13 +10210,13 @@
       </c>
       <c r="E293" s="39"/>
       <c r="F293" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H293" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I293" s="43"/>
       <c r="K293" s="44"/>
@@ -10226,13 +10234,13 @@
       </c>
       <c r="E294" s="39"/>
       <c r="F294" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H294" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I294" s="43"/>
       <c r="K294" s="44"/>
@@ -10250,13 +10258,13 @@
       </c>
       <c r="E295" s="39"/>
       <c r="F295" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H295" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I295" s="43"/>
       <c r="K295" s="44"/>
@@ -10274,13 +10282,13 @@
       </c>
       <c r="E296" s="39"/>
       <c r="F296" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H296" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I296" s="43"/>
       <c r="K296" s="44"/>
@@ -10298,13 +10306,13 @@
       </c>
       <c r="E297" s="39"/>
       <c r="F297" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H297" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I297" s="43"/>
       <c r="K297" s="44"/>
@@ -10322,13 +10330,13 @@
       </c>
       <c r="E298" s="39"/>
       <c r="F298" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H298" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I298" s="43"/>
       <c r="K298" s="44"/>
@@ -10346,13 +10354,13 @@
       </c>
       <c r="E299" s="39"/>
       <c r="F299" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H299" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I299" s="43"/>
       <c r="K299" s="44"/>
@@ -10370,13 +10378,13 @@
       </c>
       <c r="E300" s="39"/>
       <c r="F300" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H300" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I300" s="43"/>
       <c r="K300" s="44"/>
@@ -10394,13 +10402,13 @@
       </c>
       <c r="E301" s="39"/>
       <c r="F301" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H301" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I301" s="43"/>
       <c r="K301" s="44"/>
@@ -10418,13 +10426,13 @@
       </c>
       <c r="E302" s="39"/>
       <c r="F302" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H302" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I302" s="43"/>
       <c r="K302" s="44"/>
@@ -10442,13 +10450,13 @@
       </c>
       <c r="E303" s="39"/>
       <c r="F303" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G303" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H303" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I303" s="43"/>
       <c r="K303" s="44"/>
@@ -10466,13 +10474,13 @@
       </c>
       <c r="E304" s="39"/>
       <c r="F304" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H304" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I304" s="43"/>
       <c r="K304" s="44"/>
@@ -10490,13 +10498,13 @@
       </c>
       <c r="E305" s="39"/>
       <c r="F305" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H305" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I305" s="43"/>
       <c r="K305" s="44"/>
@@ -10514,13 +10522,13 @@
       </c>
       <c r="E306" s="39"/>
       <c r="F306" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H306" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I306" s="43"/>
       <c r="K306" s="44"/>
@@ -10538,13 +10546,13 @@
       </c>
       <c r="E307" s="39"/>
       <c r="F307" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H307" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I307" s="43"/>
       <c r="K307" s="44"/>
@@ -10562,13 +10570,13 @@
       </c>
       <c r="E308" s="39"/>
       <c r="F308" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H308" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I308" s="43"/>
       <c r="K308" s="44"/>
@@ -10586,13 +10594,13 @@
       </c>
       <c r="E309" s="39"/>
       <c r="F309" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G309" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H309" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I309" s="43"/>
       <c r="K309" s="44"/>
@@ -10610,13 +10618,13 @@
       </c>
       <c r="E310" s="39"/>
       <c r="F310" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H310" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I310" s="43"/>
       <c r="K310" s="44"/>
@@ -10634,13 +10642,13 @@
       </c>
       <c r="E311" s="39"/>
       <c r="F311" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H311" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I311" s="43"/>
       <c r="K311" s="44"/>
@@ -10658,13 +10666,13 @@
       </c>
       <c r="E312" s="39"/>
       <c r="F312" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H312" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I312" s="43"/>
       <c r="K312" s="44"/>
@@ -10682,13 +10690,13 @@
       </c>
       <c r="E313" s="39"/>
       <c r="F313" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H313" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I313" s="43"/>
       <c r="K313" s="44"/>
@@ -10722,7 +10730,7 @@
       </c>
       <c r="E315" s="26"/>
       <c r="F315" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G315" s="38" t="s">
         <v>27</v>
@@ -10755,7 +10763,7 @@
       </c>
       <c r="E316" s="36"/>
       <c r="F316" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G316" s="27" t="s">
         <v>6</v>
@@ -10784,7 +10792,7 @@
       </c>
       <c r="E317" s="36"/>
       <c r="F317" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G317" s="27" t="s">
         <v>7</v>
@@ -10813,7 +10821,7 @@
       </c>
       <c r="E318" s="36"/>
       <c r="F318" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G318" s="27" t="s">
         <v>5</v>
@@ -10842,13 +10850,13 @@
       </c>
       <c r="E319" s="39"/>
       <c r="F319" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G319" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H319" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I319" s="6"/>
     </row>
@@ -10865,13 +10873,13 @@
       </c>
       <c r="E320" s="39"/>
       <c r="F320" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G320" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H320" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I320" s="43"/>
       <c r="K320" s="44"/>
@@ -10889,13 +10897,13 @@
       </c>
       <c r="E321" s="39"/>
       <c r="F321" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H321" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I321" s="43"/>
       <c r="K321" s="44"/>
@@ -10913,13 +10921,13 @@
       </c>
       <c r="E322" s="39"/>
       <c r="F322" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G322" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H322" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I322" s="43"/>
       <c r="K322" s="44"/>
@@ -10937,13 +10945,13 @@
       </c>
       <c r="E323" s="39"/>
       <c r="F323" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G323" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H323" s="52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I323" s="43"/>
       <c r="K323" s="44"/>
@@ -10961,13 +10969,13 @@
       </c>
       <c r="E324" s="39"/>
       <c r="F324" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H324" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I324" s="43"/>
       <c r="K324" s="44"/>
@@ -10985,13 +10993,13 @@
       </c>
       <c r="E325" s="39"/>
       <c r="F325" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G325" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H325" s="51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I325" s="43"/>
       <c r="K325" s="44"/>
@@ -11009,13 +11017,13 @@
       </c>
       <c r="E326" s="39"/>
       <c r="F326" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H326" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I326" s="43"/>
       <c r="K326" s="44"/>
@@ -11033,13 +11041,13 @@
       </c>
       <c r="E327" s="39"/>
       <c r="F327" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H327" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I327" s="43"/>
       <c r="K327" s="44"/>
@@ -11057,13 +11065,13 @@
       </c>
       <c r="E328" s="39"/>
       <c r="F328" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G328" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H328" s="51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I328" s="43"/>
       <c r="K328" s="44"/>
@@ -11081,13 +11089,13 @@
       </c>
       <c r="E329" s="39"/>
       <c r="F329" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G329" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H329" s="51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I329" s="43"/>
       <c r="K329" s="44"/>
@@ -11105,13 +11113,13 @@
       </c>
       <c r="E330" s="39"/>
       <c r="F330" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H330" s="51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I330" s="43"/>
       <c r="K330" s="44"/>
@@ -11129,13 +11137,13 @@
       </c>
       <c r="E331" s="39"/>
       <c r="F331" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G331" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H331" s="51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I331" s="43"/>
       <c r="K331" s="44"/>
@@ -11153,13 +11161,13 @@
       </c>
       <c r="E332" s="39"/>
       <c r="F332" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G332" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H332" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I332" s="43"/>
       <c r="K332" s="44"/>
@@ -11177,13 +11185,13 @@
       </c>
       <c r="E333" s="39"/>
       <c r="F333" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G333" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H333" s="51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I333" s="43"/>
       <c r="K333" s="44"/>
@@ -11201,13 +11209,13 @@
       </c>
       <c r="E334" s="39"/>
       <c r="F334" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G334" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H334" s="51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I334" s="43"/>
       <c r="K334" s="44"/>
@@ -11225,13 +11233,13 @@
       </c>
       <c r="E335" s="39"/>
       <c r="F335" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G335" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H335" s="51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I335" s="43"/>
       <c r="K335" s="44"/>
@@ -11249,13 +11257,13 @@
       </c>
       <c r="E336" s="39"/>
       <c r="F336" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G336" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H336" s="51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I336" s="43"/>
       <c r="K336" s="44"/>
@@ -11273,13 +11281,13 @@
       </c>
       <c r="E337" s="39"/>
       <c r="F337" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G337" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H337" s="51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I337" s="43"/>
       <c r="K337" s="44"/>
@@ -11297,13 +11305,13 @@
       </c>
       <c r="E338" s="39"/>
       <c r="F338" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G338" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H338" s="51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I338" s="43"/>
       <c r="K338" s="44"/>
@@ -11321,13 +11329,13 @@
       </c>
       <c r="E339" s="39"/>
       <c r="F339" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G339" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H339" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I339" s="43"/>
       <c r="K339" s="44"/>
@@ -11345,13 +11353,13 @@
       </c>
       <c r="E340" s="39"/>
       <c r="F340" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G340" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H340" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I340" s="43"/>
       <c r="K340" s="44"/>
@@ -11369,13 +11377,13 @@
       </c>
       <c r="E341" s="39"/>
       <c r="F341" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H341" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I341" s="43"/>
       <c r="K341" s="44"/>
@@ -11409,7 +11417,7 @@
       </c>
       <c r="E343" s="26"/>
       <c r="F343" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G343" s="38" t="s">
         <v>27</v>
@@ -11442,7 +11450,7 @@
       </c>
       <c r="E344" s="36"/>
       <c r="F344" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G344" s="27" t="s">
         <v>6</v>
@@ -11471,7 +11479,7 @@
       </c>
       <c r="E345" s="36"/>
       <c r="F345" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G345" s="27" t="s">
         <v>7</v>
@@ -11500,7 +11508,7 @@
       </c>
       <c r="E346" s="36"/>
       <c r="F346" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G346" s="27" t="s">
         <v>5</v>
@@ -11529,13 +11537,13 @@
       </c>
       <c r="E347" s="39"/>
       <c r="F347" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G347" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="G347" s="41" t="s">
-        <v>83</v>
-      </c>
       <c r="H347" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I347" s="6"/>
     </row>
@@ -11552,13 +11560,13 @@
       </c>
       <c r="E348" s="39"/>
       <c r="F348" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H348" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I348" s="43"/>
       <c r="K348" s="44"/>
@@ -11576,13 +11584,13 @@
       </c>
       <c r="E349" s="39"/>
       <c r="F349" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H349" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I349" s="43"/>
       <c r="K349" s="44"/>
@@ -11600,13 +11608,13 @@
       </c>
       <c r="E350" s="39"/>
       <c r="F350" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H350" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I350" s="43"/>
       <c r="K350" s="44"/>
@@ -11624,13 +11632,13 @@
       </c>
       <c r="E351" s="39"/>
       <c r="F351" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H351" s="52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I351" s="43"/>
       <c r="K351" s="44"/>
@@ -11648,13 +11656,13 @@
       </c>
       <c r="E352" s="39"/>
       <c r="F352" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H352" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I352" s="43"/>
       <c r="K352" s="44"/>
@@ -11672,13 +11680,13 @@
       </c>
       <c r="E353" s="39"/>
       <c r="F353" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G353" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H353" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I353" s="43"/>
       <c r="K353" s="44"/>
@@ -11696,13 +11704,13 @@
       </c>
       <c r="E354" s="39"/>
       <c r="F354" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G354" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H354" s="51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I354" s="43"/>
       <c r="K354" s="44"/>
@@ -11720,13 +11728,13 @@
       </c>
       <c r="E355" s="39"/>
       <c r="F355" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G355" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H355" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I355" s="43"/>
       <c r="K355" s="44"/>
@@ -11744,13 +11752,13 @@
       </c>
       <c r="E356" s="39"/>
       <c r="F356" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G356" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H356" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I356" s="43"/>
       <c r="K356" s="44"/>
@@ -11768,13 +11776,13 @@
       </c>
       <c r="E357" s="39"/>
       <c r="F357" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H357" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I357" s="43"/>
       <c r="K357" s="44"/>
@@ -11792,13 +11800,13 @@
       </c>
       <c r="E358" s="39"/>
       <c r="F358" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H358" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I358" s="43"/>
       <c r="K358" s="44"/>
@@ -11816,13 +11824,13 @@
       </c>
       <c r="E359" s="39"/>
       <c r="F359" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H359" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I359" s="43"/>
       <c r="K359" s="44"/>
@@ -11840,13 +11848,13 @@
       </c>
       <c r="E360" s="39"/>
       <c r="F360" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G360" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H360" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I360" s="43"/>
       <c r="K360" s="44"/>
@@ -11864,13 +11872,13 @@
       </c>
       <c r="E361" s="39"/>
       <c r="F361" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H361" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I361" s="43"/>
       <c r="K361" s="44"/>
@@ -11888,13 +11896,13 @@
       </c>
       <c r="E362" s="39"/>
       <c r="F362" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H362" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I362" s="43"/>
       <c r="K362" s="44"/>
@@ -11912,13 +11920,13 @@
       </c>
       <c r="E363" s="39"/>
       <c r="F363" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G363" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H363" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I363" s="43"/>
       <c r="K363" s="44"/>
@@ -11936,13 +11944,13 @@
       </c>
       <c r="E364" s="39"/>
       <c r="F364" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H364" s="51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I364" s="43"/>
       <c r="K364" s="44"/>
@@ -11960,13 +11968,13 @@
       </c>
       <c r="E365" s="39"/>
       <c r="F365" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H365" s="51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I365" s="43"/>
       <c r="K365" s="44"/>
@@ -11984,13 +11992,13 @@
       </c>
       <c r="E366" s="39"/>
       <c r="F366" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G366" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H366" s="51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I366" s="43"/>
       <c r="K366" s="44"/>
@@ -12008,13 +12016,13 @@
       </c>
       <c r="E367" s="39"/>
       <c r="F367" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H367" s="51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I367" s="43"/>
       <c r="K367" s="44"/>
@@ -12032,13 +12040,13 @@
       </c>
       <c r="E368" s="39"/>
       <c r="F368" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H368" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I368" s="43"/>
       <c r="K368" s="44"/>
@@ -12056,13 +12064,13 @@
       </c>
       <c r="E369" s="39"/>
       <c r="F369" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G369" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H369" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I369" s="43"/>
       <c r="K369" s="44"/>
